--- a/pred_logs/results.xlsx
+++ b/pred_logs/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="555" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="555" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="stale" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>pliki bazy</t>
   </si>
@@ -90,13 +90,16 @@
     <t>ważona odległość początkowa i dystans + max. K sąsiadów</t>
   </si>
   <si>
-    <t>Czas</t>
-  </si>
-  <si>
     <t>ważona odległość i dystans</t>
   </si>
   <si>
     <t>ważona odległość początkowa i dystans + max. najbliższego sąsiada</t>
+  </si>
+  <si>
+    <t>Czas przed optymalizacją wektora kierunku</t>
+  </si>
+  <si>
+    <t>Czas po optymalizacji wektora kierunku</t>
   </si>
 </sst>
 </file>
@@ -149,14 +152,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -602,25 +605,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134656384"/>
-        <c:axId val="140986624"/>
+        <c:axId val="51814784"/>
+        <c:axId val="51816320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134656384"/>
+        <c:axId val="51814784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140986624"/>
+        <c:crossAx val="51816320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140986624"/>
+        <c:axId val="51816320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -628,7 +631,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134656384"/>
+        <c:crossAx val="51814784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -641,7 +644,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -893,25 +896,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56777344"/>
-        <c:axId val="56902016"/>
+        <c:axId val="52440064"/>
+        <c:axId val="52450048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56777344"/>
+        <c:axId val="52440064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56902016"/>
+        <c:crossAx val="52450048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56902016"/>
+        <c:axId val="52450048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,20 +922,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56777344"/>
+        <c:crossAx val="52440064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1193,25 +1195,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134077824"/>
-        <c:axId val="134644864"/>
+        <c:axId val="52852992"/>
+        <c:axId val="52858880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134077824"/>
+        <c:axId val="52852992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134644864"/>
+        <c:crossAx val="52858880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134644864"/>
+        <c:axId val="52858880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1221,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134077824"/>
+        <c:crossAx val="52852992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1233,7 +1235,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1250,9 +1252,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-          </c:trendline>
+          <c:tx>
+            <c:strRef>
+              <c:f>'czas wykonywania'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Czas przed optymalizacją wektora kierunku</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:cat>
             <c:numRef>
               <c:f>'czas wykonywania'!$J$2:$J$14</c:f>
@@ -1350,45 +1360,110 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'czas wykonywania'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Czas po optymalizacji wektora kierunku</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'czas wykonywania'!$L$2:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.87261E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2838699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.42778E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4839800000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5276500000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.53835E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6285599999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6746299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7290999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.76436E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7790499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7635899999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8158100000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62284928"/>
-        <c:axId val="139815552"/>
+        <c:axId val="52886912"/>
+        <c:axId val="52769920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62284928"/>
+        <c:axId val="52886912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139815552"/>
+        <c:crossAx val="52769920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139815552"/>
+        <c:axId val="52769920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8.0000000000000019E-3"/>
-          <c:min val="2.0000000000000005E-3"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62284928"/>
+        <c:crossAx val="52886912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1503,16 +1578,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2505075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1909,25 +1984,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2">
         <v>100</v>
       </c>
@@ -2006,25 +2081,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2">
         <v>2</v>
       </c>
@@ -2243,7 +2318,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0.43418400000000001</v>
@@ -2355,25 +2430,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2">
         <v>2</v>
       </c>
@@ -2572,38 +2647,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2">
         <v>0</v>
       </c>
@@ -2817,10 +2892,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2828,36 +2903,40 @@
     <col min="1" max="1" width="58.375" customWidth="1"/>
     <col min="2" max="9" width="8.625"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="25.375" customWidth="1"/>
-    <col min="13" max="1025" width="8.625"/>
+    <col min="11" max="11" width="35.875" customWidth="1"/>
+    <col min="12" max="12" width="33.875" customWidth="1"/>
+    <col min="13" max="13" width="25.75" customWidth="1"/>
+    <col min="14" max="1025" width="8.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="15">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3"/>
       <c r="B2">
         <v>100</v>
       </c>
@@ -2885,8 +2964,11 @@
       <c r="K2">
         <v>2.44903E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>1.87261E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2896,8 +2978,11 @@
       <c r="K3">
         <v>3.8689699999999998E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>2.2838699999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2907,8 +2992,11 @@
       <c r="K4">
         <v>4.1972199999999998E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4">
+        <v>2.42778E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2918,8 +3006,11 @@
       <c r="K5">
         <v>4.6130600000000004E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5">
+        <v>2.4839800000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2929,10 +3020,13 @@
       <c r="K6">
         <v>4.7851500000000002E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6">
+        <v>2.5276500000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7">
         <v>7</v>
@@ -2940,8 +3034,11 @@
       <c r="K7">
         <v>5.3454699999999997E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7">
+        <v>2.53835E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2951,53 +3048,74 @@
       <c r="K8">
         <v>5.5116599999999998E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8">
+        <v>2.6285599999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="J9">
         <v>9</v>
       </c>
       <c r="K9">
         <v>5.9183600000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9">
+        <v>2.6746299999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="J10">
         <v>10</v>
       </c>
       <c r="K10">
         <v>6.2818800000000001E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10">
+        <v>2.7290999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="J11">
         <v>11</v>
       </c>
       <c r="K11">
         <v>6.6972999999999998E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11">
+        <v>2.76436E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="J12">
         <v>12</v>
       </c>
       <c r="K12">
         <v>6.8804799999999996E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12">
+        <v>2.7790499999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="J13">
         <v>13</v>
       </c>
       <c r="K13">
         <v>7.1400600000000002E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13">
+        <v>2.7635899999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="J14">
         <v>14</v>
       </c>
       <c r="K14">
         <v>7.4724199999999996E-3</v>
+      </c>
+      <c r="L14">
+        <v>2.8158100000000002E-3</v>
       </c>
     </row>
   </sheetData>

--- a/pred_logs/results.xlsx
+++ b/pred_logs/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="555" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="614" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stale" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>pliki bazy</t>
   </si>
@@ -63,9 +63,6 @@
     <t>dystans + max. K sąsiadów</t>
   </si>
   <si>
-    <t>odległość początkowa i dystans + max. najbliższego sąsiada</t>
-  </si>
-  <si>
     <t>odległość początkowa i dystans + max. K sąsiadów</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>Czas po optymalizacji wektora kierunku</t>
+  </si>
+  <si>
+    <t>liczba iteracji (dla testów z liczbą rekordów)</t>
   </si>
 </sst>
 </file>
@@ -605,25 +605,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51814784"/>
-        <c:axId val="51816320"/>
+        <c:axId val="131895296"/>
+        <c:axId val="131896832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51814784"/>
+        <c:axId val="131895296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51816320"/>
+        <c:crossAx val="131896832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51816320"/>
+        <c:axId val="131896832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +631,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51814784"/>
+        <c:crossAx val="131895296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -644,7 +644,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -896,25 +896,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="52440064"/>
-        <c:axId val="52450048"/>
+        <c:axId val="132516480"/>
+        <c:axId val="132526464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52440064"/>
+        <c:axId val="132516480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52450048"/>
+        <c:crossAx val="132526464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52450048"/>
+        <c:axId val="132526464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,19 +922,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52440064"/>
+        <c:crossAx val="132516480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1195,25 +1196,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="52852992"/>
-        <c:axId val="52858880"/>
+        <c:axId val="133982080"/>
+        <c:axId val="133983616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52852992"/>
+        <c:axId val="133982080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52858880"/>
+        <c:crossAx val="133983616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52858880"/>
+        <c:axId val="133983616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1222,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52852992"/>
+        <c:crossAx val="133982080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1235,7 +1236,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1381,68 +1382,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.87261E-3</c:v>
+                  <c:v>1.85969E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2838699999999999E-3</c:v>
+                  <c:v>2.2557300000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.42778E-3</c:v>
+                  <c:v>2.3640499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4839800000000002E-3</c:v>
+                  <c:v>2.4841500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5276500000000002E-3</c:v>
+                  <c:v>2.4961499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.53835E-3</c:v>
+                  <c:v>2.5226699999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6285599999999998E-3</c:v>
+                  <c:v>2.61874E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6746299999999999E-3</c:v>
+                  <c:v>2.7066799999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7290999999999999E-3</c:v>
+                  <c:v>2.7416900000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.76436E-3</c:v>
+                  <c:v>2.7073399999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7790499999999999E-3</c:v>
+                  <c:v>2.73187E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7635899999999998E-3</c:v>
+                  <c:v>2.8011799999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8158100000000002E-3</c:v>
+                  <c:v>2.77853E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="52886912"/>
-        <c:axId val="52769920"/>
+        <c:axId val="134019712"/>
+        <c:axId val="134037888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52886912"/>
+        <c:axId val="134019712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52769920"/>
+        <c:crossAx val="134037888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52769920"/>
+        <c:axId val="134037888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1451,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52886912"/>
+        <c:crossAx val="134019712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,7 +1464,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1894,15 +1895,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23"/>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
     <col min="2" max="2" width="57"/>
     <col min="3" max="1025" width="8.625"/>
   </cols>
@@ -1957,10 +1958,18 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1971,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2027,32 +2036,12 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2085,7 +2074,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2318,7 +2307,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>0.43418400000000001</v>
@@ -2362,7 +2351,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0.441191</v>
@@ -2434,7 +2423,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2579,7 +2568,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0.78247500000000003</v>
@@ -2651,7 +2640,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2745,7 +2734,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0.313415</v>
@@ -2813,7 +2802,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>7.20359E-2</v>
@@ -2894,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2923,16 +2912,16 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2965,12 +2954,12 @@
         <v>2.44903E-3</v>
       </c>
       <c r="L2">
-        <v>1.87261E-3</v>
+        <v>1.85969E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -2979,12 +2968,12 @@
         <v>3.8689699999999998E-3</v>
       </c>
       <c r="L3">
-        <v>2.2838699999999999E-3</v>
+        <v>2.2557300000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -2993,13 +2982,10 @@
         <v>4.1972199999999998E-3</v>
       </c>
       <c r="L4">
-        <v>2.42778E-3</v>
+        <v>2.3640499999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
       <c r="J5">
         <v>5</v>
       </c>
@@ -3007,13 +2993,10 @@
         <v>4.6130600000000004E-3</v>
       </c>
       <c r="L5">
-        <v>2.4839800000000002E-3</v>
+        <v>2.4841500000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
       <c r="J6">
         <v>6</v>
       </c>
@@ -3021,13 +3004,10 @@
         <v>4.7851500000000002E-3</v>
       </c>
       <c r="L6">
-        <v>2.5276500000000002E-3</v>
+        <v>2.4961499999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
       <c r="J7">
         <v>7</v>
       </c>
@@ -3035,13 +3015,10 @@
         <v>5.3454699999999997E-3</v>
       </c>
       <c r="L7">
-        <v>2.53835E-3</v>
+        <v>2.5226699999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
       <c r="J8">
         <v>8</v>
       </c>
@@ -3049,7 +3026,7 @@
         <v>5.5116599999999998E-3</v>
       </c>
       <c r="L8">
-        <v>2.6285599999999998E-3</v>
+        <v>2.61874E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3060,7 +3037,7 @@
         <v>5.9183600000000001E-3</v>
       </c>
       <c r="L9">
-        <v>2.6746299999999999E-3</v>
+        <v>2.7066799999999999E-3</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3071,7 +3048,7 @@
         <v>6.2818800000000001E-3</v>
       </c>
       <c r="L10">
-        <v>2.7290999999999999E-3</v>
+        <v>2.7416900000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3082,7 +3059,7 @@
         <v>6.6972999999999998E-3</v>
       </c>
       <c r="L11">
-        <v>2.76436E-3</v>
+        <v>2.7073399999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3093,7 +3070,7 @@
         <v>6.8804799999999996E-3</v>
       </c>
       <c r="L12">
-        <v>2.7790499999999999E-3</v>
+        <v>2.73187E-3</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3104,7 +3081,7 @@
         <v>7.1400600000000002E-3</v>
       </c>
       <c r="L13">
-        <v>2.7635899999999998E-3</v>
+        <v>2.8011799999999999E-3</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3115,7 +3092,7 @@
         <v>7.4724199999999996E-3</v>
       </c>
       <c r="L14">
-        <v>2.8158100000000002E-3</v>
+        <v>2.77853E-3</v>
       </c>
     </row>
   </sheetData>

--- a/pred_logs/results.xlsx
+++ b/pred_logs/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>pliki bazy</t>
   </si>
@@ -63,9 +63,6 @@
     <t>dystans + max. K sąsiadów</t>
   </si>
   <si>
-    <t>odległość początkowa i dystans + max. K sąsiadów</t>
-  </si>
-  <si>
     <t>Długość rekordu</t>
   </si>
   <si>
@@ -100,6 +97,15 @@
   </si>
   <si>
     <t>liczba iteracji (dla testów z liczbą rekordów)</t>
+  </si>
+  <si>
+    <t>Liczba rekordów (średni wynik)</t>
+  </si>
+  <si>
+    <t>84.2796</t>
+  </si>
+  <si>
+    <t>83.822</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -158,6 +164,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -605,25 +614,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="131895296"/>
-        <c:axId val="131896832"/>
+        <c:axId val="94011392"/>
+        <c:axId val="94012928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131895296"/>
+        <c:axId val="94011392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131896832"/>
+        <c:crossAx val="94012928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131896832"/>
+        <c:axId val="94012928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,20 +640,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131895296"/>
+        <c:crossAx val="94011392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -896,25 +904,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="132516480"/>
-        <c:axId val="132526464"/>
+        <c:axId val="94509696"/>
+        <c:axId val="94519680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132516480"/>
+        <c:axId val="94509696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132526464"/>
+        <c:crossAx val="94519680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132526464"/>
+        <c:axId val="94519680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,20 +930,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132516480"/>
+        <c:crossAx val="94509696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1196,25 +1203,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="133982080"/>
-        <c:axId val="133983616"/>
+        <c:axId val="130058112"/>
+        <c:axId val="130059648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133982080"/>
+        <c:axId val="130058112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133983616"/>
+        <c:crossAx val="130059648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133983616"/>
+        <c:axId val="130059648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,21 +1229,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133982080"/>
+        <c:crossAx val="130058112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1425,25 +1431,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134019712"/>
-        <c:axId val="134037888"/>
+        <c:axId val="130087552"/>
+        <c:axId val="94642560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134019712"/>
+        <c:axId val="130087552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134037888"/>
+        <c:crossAx val="94642560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134037888"/>
+        <c:axId val="94642560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,20 +1457,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134019712"/>
+        <c:crossAx val="130087552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1958,7 +1963,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0.01</v>
@@ -1966,7 +1971,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>1000</v>
@@ -1982,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1996,8 +2001,8 @@
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
+      <c r="B1" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2013,25 +2018,28 @@
     <row r="2" spans="1:12">
       <c r="A2" s="3"/>
       <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="G2">
         <v>200</v>
       </c>
-      <c r="D2">
+      <c r="H2">
         <v>500</v>
       </c>
-      <c r="E2">
+      <c r="I2">
         <v>1000</v>
-      </c>
-      <c r="F2">
-        <v>2000</v>
-      </c>
-      <c r="G2">
-        <v>5000</v>
-      </c>
-      <c r="H2">
-        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2041,7 +2049,31 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.375027</v>
+      </c>
+      <c r="C4">
+        <v>0.53783099999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.69251499999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.81363700000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.83897299999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.84325799999999995</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2106,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2307,7 +2339,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>0.43418400000000001</v>
@@ -2351,7 +2383,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0.441191</v>
@@ -2423,7 +2455,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2568,7 +2600,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0.78247500000000003</v>
@@ -2640,7 +2672,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2734,7 +2766,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0.313415</v>
@@ -2802,7 +2834,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>7.20359E-2</v>
@@ -2912,16 +2944,16 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2973,7 +3005,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <v>4</v>

--- a/pred_logs/results.xlsx
+++ b/pred_logs/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>pliki bazy</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>ważona odległość i dystans</t>
+  </si>
+  <si>
+    <t>Dead reckoning</t>
   </si>
 </sst>
 </file>
@@ -401,11 +404,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="53240960"/>
-        <c:axId val="53242496"/>
+        <c:axId val="121962496"/>
+        <c:axId val="121962880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53240960"/>
+        <c:axId val="121962496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,14 +438,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53242496"/>
+        <c:crossAx val="121962880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53242496"/>
+        <c:axId val="121962880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,7 +476,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53240960"/>
+        <c:crossAx val="121962496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -486,7 +489,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1167,25 +1170,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="118888704"/>
-        <c:axId val="118910976"/>
+        <c:axId val="123157504"/>
+        <c:axId val="123171584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118888704"/>
+        <c:axId val="123157504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118910976"/>
+        <c:crossAx val="123171584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118910976"/>
+        <c:axId val="123171584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,7 +1196,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118888704"/>
+        <c:crossAx val="123157504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1206,7 +1209,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1554,25 +1557,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120199424"/>
-        <c:axId val="120213504"/>
+        <c:axId val="121321344"/>
+        <c:axId val="121322880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120199424"/>
+        <c:axId val="121321344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120213504"/>
+        <c:crossAx val="121322880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120213504"/>
+        <c:axId val="121322880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1583,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120199424"/>
+        <c:crossAx val="121321344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1593,7 +1596,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1926,25 +1929,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120335360"/>
-        <c:axId val="120349440"/>
+        <c:axId val="123299328"/>
+        <c:axId val="123300864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120335360"/>
+        <c:axId val="123299328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120349440"/>
+        <c:crossAx val="123300864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120349440"/>
+        <c:axId val="123300864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +1955,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120335360"/>
+        <c:crossAx val="123299328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1965,7 +1968,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2202,25 +2205,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120363264"/>
-        <c:axId val="120389632"/>
+        <c:axId val="123344768"/>
+        <c:axId val="123346304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120363264"/>
+        <c:axId val="123344768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120389632"/>
+        <c:crossAx val="123346304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120389632"/>
+        <c:axId val="123346304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,7 +2231,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120363264"/>
+        <c:crossAx val="123344768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2241,7 +2244,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2514,11 +2517,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120438784"/>
-        <c:axId val="120441088"/>
+        <c:axId val="123374976"/>
+        <c:axId val="123397632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120438784"/>
+        <c:axId val="123374976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,14 +2546,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120441088"/>
+        <c:crossAx val="123397632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120441088"/>
+        <c:axId val="123397632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,7 +2584,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120438784"/>
+        <c:crossAx val="123374976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2594,7 +2597,241 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Dead Reckoning</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'czas wykonywania'!$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0103099999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Optymalny algorytm K-najbliższych sąsiadów</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'czas wykonywania'!$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0427900000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="59442304"/>
+        <c:axId val="59443840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="59442304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="59443840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="59443840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas pojedynczej predykcji [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="59442304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Dead Reckoning</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'czas wykonywania'!$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.88146599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Optymalny algorytm K-najbliższych sąsiadów</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'czas wykonywania'!$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.83089299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="82162432"/>
+        <c:axId val="82163968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="82162432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82163968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82163968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Skuteczność predykcji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82162432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2775,15 +3012,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3162300</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2797,6 +3034,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3656,7 +3953,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4130,14 +4427,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="58.375"/>
-    <col min="2" max="17" width="10.625" customWidth="1"/>
+    <col min="2" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="17" width="10.625" customWidth="1"/>
     <col min="18" max="1025" width="8.625"/>
   </cols>
   <sheetData>
@@ -4525,6 +4824,18 @@
       <c r="B8">
         <v>1000</v>
       </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.0103099999999999E-6</v>
+      </c>
+      <c r="H8">
+        <v>0.88146599999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.83089299999999999</v>
+      </c>
       <c r="S8">
         <v>8</v>
       </c>
@@ -4536,6 +4847,10 @@
       </c>
     </row>
     <row r="9" spans="1:22">
+      <c r="G9" s="3">
+        <f>G8*B8</f>
+        <v>1.0103099999999999E-3</v>
+      </c>
       <c r="S9">
         <v>9</v>
       </c>
